--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2_捷豹组.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.7.2 20161215/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.7.2 20161215\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.7.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.8 新特性|Fix Bug'!$A$1:$U$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.7.2 新特性|Fix Bug'!$A$1:$U$16</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1423,7 +1423,6 @@
     <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
@@ -1468,6 +1467,7 @@
     <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1840,36 +1840,36 @@
   <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.83203125" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="U3" s="54"/>
       <c r="V3" s="53"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="U4" s="54"/>
       <c r="V4" s="53"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="U5" s="54"/>
       <c r="V5" s="53"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="U6" s="54"/>
       <c r="V6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="U7" s="54"/>
       <c r="V7" s="53"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="U8" s="54"/>
       <c r="V8" s="53"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="U9" s="54"/>
       <c r="V9" s="53"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="U10" s="54"/>
       <c r="V10" s="53"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="U11" s="54"/>
       <c r="V11" s="53"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -2534,7 +2534,7 @@
       <c r="U12" s="54"/>
       <c r="V12" s="53"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -2558,7 +2558,7 @@
       <c r="U13" s="56"/>
       <c r="V13" s="53"/>
     </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2581,7 +2581,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="45"/>
     </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2604,7 +2604,7 @@
       <c r="T15" s="44"/>
       <c r="U15" s="45"/>
     </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2627,7 +2627,7 @@
       <c r="T16" s="44"/>
       <c r="U16" s="45"/>
     </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2650,7 +2650,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="54"/>
     </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2673,7 +2673,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="54"/>
     </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2696,7 +2696,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2719,7 +2719,7 @@
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
     </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2742,7 +2742,7 @@
       <c r="T21" s="59"/>
       <c r="U21" s="58"/>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2765,7 +2765,7 @@
       <c r="T22" s="60"/>
       <c r="U22" s="58"/>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2788,7 +2788,7 @@
       <c r="T23" s="59"/>
       <c r="U23" s="58"/>
     </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2811,7 +2811,7 @@
       <c r="T24" s="59"/>
       <c r="U24" s="58"/>
     </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2834,7 +2834,7 @@
       <c r="T25" s="55"/>
       <c r="U25" s="47"/>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2857,7 +2857,7 @@
       <c r="T26" s="44"/>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2880,7 +2880,7 @@
       <c r="T27" s="44"/>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2903,7 +2903,7 @@
       <c r="T28" s="44"/>
       <c r="U28" s="54"/>
     </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2926,7 +2926,7 @@
       <c r="T29" s="59"/>
       <c r="U29" s="58"/>
     </row>
-    <row r="30" spans="1:21" ht="48" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2951,7 +2951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2974,7 +2974,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2997,7 +2997,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="54"/>
     </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3020,7 +3020,7 @@
       <c r="T33" s="44"/>
       <c r="U33" s="54"/>
     </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3043,7 +3043,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="54"/>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -3066,7 +3066,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -3089,7 +3089,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="54"/>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -3112,7 +3112,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -3135,7 +3135,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="54"/>
     </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -3158,7 +3158,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -3181,7 +3181,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="54"/>
     </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -3204,7 +3204,7 @@
       <c r="T41" s="55"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -3227,7 +3227,7 @@
       <c r="T42" s="55"/>
       <c r="U42" s="54"/>
     </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -3250,7 +3250,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="45"/>
     </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -3273,7 +3273,7 @@
       <c r="T44" s="44"/>
       <c r="U44" s="45"/>
     </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -3296,7 +3296,7 @@
       <c r="T45" s="44"/>
       <c r="U45" s="45"/>
     </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -3319,7 +3319,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -3342,7 +3342,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -3365,7 +3365,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -3388,7 +3388,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -3411,7 +3411,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -3434,7 +3434,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3457,7 +3457,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3480,7 +3480,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3503,7 +3503,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3526,7 +3526,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3549,7 +3549,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3572,7 +3572,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3595,7 +3595,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3618,7 +3618,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3641,7 +3641,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3664,7 +3664,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3687,7 +3687,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3710,7 +3710,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3733,7 +3733,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3756,7 +3756,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3779,7 +3779,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3802,7 +3802,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3825,7 +3825,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3848,7 +3848,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3871,7 +3871,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -6012,24 +6012,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -6162,20 +6162,20 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="78"/>
       <c r="B3" s="78"/>
       <c r="C3" s="20"/>
@@ -6238,7 +6238,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="79"/>
       <c r="B4" s="80"/>
       <c r="C4" s="20"/>
@@ -6251,7 +6251,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="78"/>
       <c r="B5" s="78"/>
       <c r="C5" s="20"/>
@@ -6264,7 +6264,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="20"/>
@@ -6277,7 +6277,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="20"/>
@@ -6290,7 +6290,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="20"/>
@@ -6303,7 +6303,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="20"/>
@@ -6316,7 +6316,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="20"/>
@@ -6329,7 +6329,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6363,19 +6363,19 @@
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6410,7 +6410,7 @@
       <c r="L2" s="83"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6466,7 +6466,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6481,7 +6481,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6496,7 +6496,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6511,7 +6511,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6526,7 +6526,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6541,7 +6541,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6556,7 +6556,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6571,7 +6571,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6586,7 +6586,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6601,7 +6601,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6616,7 +6616,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6631,7 +6631,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6677,19 +6677,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6724,7 +6724,7 @@
       <c r="L2" s="83"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6780,7 +6780,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6795,7 +6795,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6810,7 +6810,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6825,7 +6825,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6840,7 +6840,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6855,7 +6855,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6870,7 +6870,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6885,7 +6885,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6900,7 +6900,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6915,7 +6915,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6930,7 +6930,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6945,7 +6945,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6991,19 +6991,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -7038,7 +7038,7 @@
       <c r="L2" s="83"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7094,7 +7094,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7109,7 +7109,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7124,7 +7124,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7139,7 +7139,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7154,7 +7154,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7169,7 +7169,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7184,7 +7184,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7199,7 +7199,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7214,7 +7214,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7229,7 +7229,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7244,7 +7244,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7259,7 +7259,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7305,21 +7305,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -7354,7 +7354,7 @@
       <c r="L2" s="83"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7410,7 +7410,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7425,7 +7425,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7440,7 +7440,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7455,7 +7455,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7470,7 +7470,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7485,7 +7485,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7500,7 +7500,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7515,7 +7515,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7530,7 +7530,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7545,7 +7545,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7560,7 +7560,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7575,7 +7575,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7621,15 +7621,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
